--- a/Doctor-Patient online appointment booking system/uploads/Patient_Info.xlsx
+++ b/Doctor-Patient online appointment booking system/uploads/Patient_Info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>patientFirstName</t>
   </si>
@@ -59,6 +59,24 @@
   </si>
   <si>
     <t>dharaniragupathi@divum.in</t>
+  </si>
+  <si>
+    <t>Gracelin</t>
+  </si>
+  <si>
+    <t>Jonex Edward</t>
+  </si>
+  <si>
+    <t>8765478954</t>
+  </si>
+  <si>
+    <t>2002/09/24</t>
+  </si>
+  <si>
+    <t>7/11,Tirupur</t>
+  </si>
+  <si>
+    <t>gracelinJonex@divum.in</t>
   </si>
 </sst>
 </file>
@@ -390,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,6 +474,26 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
